--- a/xlsx/性感_intext.xlsx
+++ b/xlsx/性感_intext.xlsx
@@ -29,13 +29,13 @@
     <t>感性</t>
   </si>
   <si>
-    <t>政策_政策_美國_性感</t>
+    <t>政策_政策_美国_性感</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2%E7%B5%B2%C2%B7%E6%BC%A2%E4%B8%81%E9%A0%93-%E7%B6%AD%E8%8E%89</t>
   </si>
   <si>
-    <t>露絲·漢丁頓-維莉</t>
+    <t>露丝·汉丁顿-维莉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%85%BE</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%80%A7%E5%BE%B5</t>
   </si>
   <si>
-    <t>第二性徵</t>
+    <t>第二性征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%86%9A</t>
   </si>
   <si>
-    <t>皮膚</t>
+    <t>皮肤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%AF%8C</t>
   </si>
   <si>
-    <t>財富</t>
+    <t>财富</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%85%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>禁慾主義</t>
+    <t>禁慾主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%BD%AA%E8%A1%8C</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%A6%AE</t>
   </si>
   <si>
-    <t>非禮</t>
+    <t>非礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%9B%BD%E5%AE%B6</t>
@@ -131,25 +131,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>伊斯蘭國家</t>
+    <t>伊斯兰国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%AC%E7%A6%AE</t>
   </si>
   <si>
-    <t>葬禮</t>
+    <t>葬礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%8C%E6%92%92</t>
   </si>
   <si>
-    <t>彌撒</t>
+    <t>弥撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%AB%E7%94%9F%E6%88%80</t>
   </si>
   <si>
-    <t>師生戀</t>
+    <t>师生恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%81%87</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E7%AB%A5</t>
   </si>
   <si>
-    <t>戀童</t>
+    <t>恋童</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%B8%AB</t>
   </si>
   <si>
-    <t>教師</t>
+    <t>教师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E5%BD%A2%E8%B1%A1</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>性選擇</t>
+    <t>性选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E6%80%A7%E5%BC%82%E5%BD%A2</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%80%A7%E7%B6%B1%E8%A6%81</t>
   </si>
   <si>
-    <t>人類性綱要</t>
+    <t>人类性纲要</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>性別</t>
+    <t>性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%80%A7%E4%BA%BA</t>
   </si>
   <si>
-    <t>雙性人</t>
+    <t>双性人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%B5%B7</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%96%9A%E8%B5%B7</t>
   </si>
   <si>
-    <t>性喚起</t>
+    <t>性唤起</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%AB%98%E6%BD%AE</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E9%81%93%E5%88%86%E6%B3%8C%E6%B6%B2</t>
   </si>
   <si>
-    <t>陰道分泌液</t>
+    <t>阴道分泌液</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E4%BB%BD_(%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8)</t>
   </si>
   <si>
-    <t>身份 (社會心理學)</t>
+    <t>身份 (社会心理学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E8%BA%AB%E4%BB%BD</t>
@@ -329,25 +329,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>性別認同</t>
+    <t>性别认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E4%BA%8C%E5%85%83</t>
   </si>
   <si>
-    <t>性別二元</t>
+    <t>性别二元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%B0%A3%E8%B3%AA</t>
   </si>
   <si>
-    <t>性別氣質</t>
+    <t>性别气质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%A7%92%E8%89%B2</t>
   </si>
   <si>
-    <t>性別角色</t>
+    <t>性别角色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>性學</t>
+    <t>性学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%94%E6%84%8F%E8%B1%A1</t>
   </si>
   <si>
-    <t>身體意象</t>
+    <t>身体意象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>安全性行為</t>
+    <t>安全性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%AE%96%E5%81%A5%E5%BA%B7</t>
@@ -419,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%AE%96%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>生殖醫學</t>
+    <t>生殖医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E7%94%A2%E7%A7%91</t>
   </si>
   <si>
-    <t>婦產科</t>
+    <t>妇产科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>男科學</t>
+    <t>男科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8C%E5%B0%BF%E5%A4%96%E7%A7%91</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>性醫學</t>
+    <t>性医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%8A%9F%E8%83%BD%E9%9A%9C%E7%A2%8D</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%85%BE%E4%BA%A2%E9%80%B2</t>
   </si>
   <si>
-    <t>性慾亢進</t>
+    <t>性慾亢进</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%B5%B7%E5%8A%9F%E8%83%BD%E9%9A%9C%E7%A2%8D</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%BC%B7%E8%BF%AB%E7%97%87</t>
   </si>
   <si>
-    <t>性強迫症</t>
+    <t>性强迫症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E6%84%9B%E5%A6%84%E6%83%B3%E7%97%87</t>
   </si>
   <si>
-    <t>被愛妄想症</t>
+    <t>被爱妄想症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%8A%AF%E7%BD%AA</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%90%88%E6%B3%95%E6%80%A7%E4%BA%A4%E5%B9%B4%E9%BD%A1</t>
   </si>
   <si>
-    <t>最低合法性交年齡</t>
+    <t>最低合法性交年龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%92%AD%E8%89%BE%E6%BB%8B%E7%97%85%E7%BD%AA</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%A8%B7%E6%93%BE</t>
   </si>
   <si>
-    <t>性騷擾</t>
+    <t>性骚扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E8%99%90%E5%BE%85</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%B3%BB</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%AF%86%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>親密關係</t>
+    <t>亲密关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E5%85%B3%E7%B3%BB</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>三角關係</t>
+    <t>三角关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E5%AE%B6%E5%BA%AD</t>
@@ -641,31 +641,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>性倫理</t>
+    <t>性伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%B4%BE%E5%B0%8D</t>
   </si>
   <si>
-    <t>性派對</t>
+    <t>性派对</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B</t>
   </si>
   <si>
-    <t>愛</t>
+    <t>爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%83%85</t>
   </si>
   <si>
-    <t>愛情</t>
+    <t>爱情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E6%83%85</t>
   </si>
   <si>
-    <t>調情</t>
+    <t>调情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A4%9C%E6%83%85</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%82%8A%E6%88%80</t>
   </si>
   <si>
-    <t>多邊戀</t>
+    <t>多边恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%AB%E4%BA%A4</t>
   </si>
   <si>
-    <t>濫交</t>
+    <t>滥交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%A6%81%E6%85%BE</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%94%9F%E8%82%B2</t>
   </si>
   <si>
-    <t>計劃生育</t>
+    <t>计划生育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%A7%BB</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%89%8D%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>婚前性行為</t>
+    <t>婚前性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%B4%E5%8A%A9%E4%BA%A4%E9%9A%9B</t>
   </si>
   <si>
-    <t>援助交際</t>
+    <t>援助交际</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sexual_capital</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>性活動</t>
+    <t>性活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%85%B0</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E6%88%B2</t>
   </si>
   <si>
-    <t>前戲</t>
+    <t>前戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%88%8F</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E5%85%A5%E5%BC%8F%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>插入式性行為</t>
+    <t>插入式性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E4%BA%A4</t>
@@ -845,13 +845,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%90%E9%99%B0</t>
   </si>
   <si>
-    <t>舐陰</t>
+    <t>舐阴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%82%E9%99%BD</t>
   </si>
   <si>
-    <t>咂陽</t>
+    <t>咂阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/69%E5%BC%8F</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%8F%92%E5%85%A5%E5%BC%8F%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>非插入式性行為</t>
+    <t>非插入式性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E4%BA%A4</t>
@@ -893,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E9%99%B0%E6%91%A9%E6%93%A6</t>
   </si>
   <si>
-    <t>女陰摩擦</t>
+    <t>女阴摩擦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E8%8E%96%E6%91%A9%E6%93%A6</t>
   </si>
   <si>
-    <t>陰莖摩擦</t>
+    <t>阴茎摩擦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E5%AE%98%E6%8C%89%E6%91%A9</t>
@@ -911,13 +911,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E9%A0%AD%E6%84%9B%E6%92%AB</t>
   </si>
   <si>
-    <t>乳頭愛撫</t>
+    <t>乳头爱抚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%9C%9F%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>經期性行為</t>
+    <t>经期性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AB%E5%BA%8A</t>
@@ -929,13 +929,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%92%AB</t>
   </si>
   <si>
-    <t>愛撫</t>
+    <t>爱抚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E6%B5%81%E8%A9%B1</t>
   </si>
   <si>
-    <t>下流話</t>
+    <t>下流话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BD%93%E4%BD%8D</t>
@@ -947,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8F%E5%B0%84</t>
   </si>
   <si>
-    <t>顏射</t>
+    <t>颜射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E7%89%A9</t>
   </si>
   <si>
-    <t>戀物</t>
+    <t>恋物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BDSM</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1%E6%80%A7%E6%84%9B</t>
   </si>
   <si>
-    <t>傳統性愛</t>
+    <t>传统性爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E4%BF%83%E6%80%A7%E7%88%B1</t>
@@ -983,25 +983,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%A5%97%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>無套性交</t>
+    <t>无套性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>虛擬性交</t>
+    <t>虚拟性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>網絡性交</t>
+    <t>网络性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>電話性交</t>
+    <t>电话性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%AB%98%E6%BD%AE%E6%8E%A7%E5%88%B6</t>
@@ -1025,19 +1025,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%81%8F%E9%9B%A2</t>
   </si>
   <si>
-    <t>性偏離</t>
+    <t>性偏离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%8F%9B%E9%85%8D%E5%81%B6</t>
   </si>
   <si>
-    <t>交換配偶</t>
+    <t>交换配偶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>性產業</t>
+    <t>性产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%89%B2</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E6%BC%94%E5%93%A1</t>
   </si>
   <si>
-    <t>色情演員</t>
+    <t>色情演员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E8%89%B2%E6%83%85</t>
@@ -1079,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%84%9B%E5%A8%83%E5%A8%83</t>
   </si>
   <si>
-    <t>性愛娃娃</t>
+    <t>性爱娃娃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%95%86%E5%BA%97</t>
@@ -1091,13 +1091,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>性旅遊</t>
+    <t>性旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E8%89%B2%E6%83%85%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>兒童色情旅遊</t>
+    <t>儿童色情旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%B7%A5%E4%BD%9C%E8%80%85</t>
@@ -1127,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E6%9B%B8%E5%88%8A</t>
   </si>
   <si>
-    <t>色情書刊</t>
+    <t>色情书刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>成人雜誌</t>
+    <t>成人杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E6%96%87%E5%AD%A6</t>
@@ -1145,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%89%B2%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>情色文學</t>
+    <t>情色文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E5%B0%8F%E8%AF%B4</t>
@@ -1163,49 +1163,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
-    <t>成人動畫</t>
+    <t>成人动画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>成人電影</t>
+    <t>成人电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>色情電影</t>
+    <t>色情电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>成人遊戲</t>
+    <t>成人游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>成人電子遊戲</t>
+    <t>成人电子游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%AE%AE%E5%9C%96</t>
   </si>
   <si>
-    <t>春宮圖</t>
+    <t>春宫图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%87%88%E5%8D%80</t>
   </si>
   <si>
-    <t>紅燈區</t>
+    <t>红灯区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E8%A1%A3%E8%88%9E%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>脫衣舞俱樂部</t>
+    <t>脱衣舞俱乐部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Webcam_model</t>
@@ -1289,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
